--- a/日志审计.xlsx
+++ b/日志审计.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="mark">EagleCloud</definedName>
+    <definedName name="mark">EagleCloud</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -5359,5 +5363,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <picture r:id="rId10000"/>
 </worksheet>
 </file>